--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E3D1CF3D-0236-4981-937C-3D9A4FD775F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A9299A6C-2A6C-4094-B41E-AE8A7495E503}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cat" sheetId="1" r:id="rId1"/>
+    <sheet name="base" sheetId="4" r:id="rId1"/>
+    <sheet name="cat" sheetId="1" r:id="rId2"/>
+    <sheet name="bra" sheetId="2" r:id="rId3"/>
+    <sheet name="theme" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>存过1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +107,16 @@
   <si>
     <t>存过P5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into brand(BRAND_ID, MERCHANT_ID, BRAND_NAME, BRAND_PRIO, BRAND_IMG_X, BRAND_IMG_Y, RECORD_STATUS) values(3, 1, '3', 1, 0, 0, 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into theme(THEME_ID, MERCHANT_ID, THEME_NAME, THEME_PRIO, THEME_IMG_X, THEME_IMG_Y, RECORD_STATUS) values(2, 1, '1', 1, 0, 0, 1) </t>
   </si>
 </sst>
 </file>
@@ -447,10 +460,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990DD8B5-FEB9-47DA-8ABF-5CA1DC70F24F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -1130,4 +1161,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7E587B-8265-4012-8D4D-1E9DBC1C94C1}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="113" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D13A63-3358-4D11-970F-5D8BB0029260}">
+  <dimension ref="D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="122.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A9299A6C-2A6C-4094-B41E-AE8A7495E503}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BD6FA421-81FF-4C01-88E5-071976F4ACCD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="4" r:id="rId1"/>
@@ -23,60 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
-  <si>
-    <t>存过1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存过3</t>
-  </si>
-  <si>
-    <t>存过4</t>
-  </si>
-  <si>
-    <t>存过5</t>
-  </si>
-  <si>
-    <t>存过2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存过6</t>
-  </si>
-  <si>
-    <t>存过7</t>
-  </si>
-  <si>
-    <t>存过8</t>
-  </si>
-  <si>
-    <t>存过9</t>
-  </si>
-  <si>
-    <t>存过10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存过31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存过32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存过33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存过34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,34 +41,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存过P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存过P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存过P3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存过P4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存过P5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into brand(BRAND_ID, MERCHANT_ID, BRAND_NAME, BRAND_PRIO, BRAND_IMG_X, BRAND_IMG_Y, RECORD_STATUS) values(3, 1, '3', 1, 0, 0, 1)</t>
   </si>
   <si>
     <t xml:space="preserve">insert into theme(THEME_ID, MERCHANT_ID, THEME_NAME, THEME_PRIO, THEME_IMG_X, THEME_IMG_Y, RECORD_STATUS) values(2, 1, '1', 1, 0, 0, 1) </t>
+  </si>
+  <si>
+    <t>数码家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机数据线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剃须刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日用百货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置物架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖宝宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母婴/玩具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早教机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴幼儿玩具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏水玩具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公文教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美妆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗发水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -463,13 +531,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990DD8B5-FEB9-47DA-8ABF-5CA1DC70F24F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -481,32 +549,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
     <col min="9" max="9" width="110" customWidth="1"/>
-    <col min="10" max="10" width="105.77734375" customWidth="1"/>
+    <col min="10" max="10" width="105.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -514,14 +589,14 @@
         <v>-1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>CONCATENATE("insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(", A2, ", 1, ", B2, ", '",  C2, "',", A2, ",0,0,1);")</f>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(1, 1, -1, '存过P1',1,0,0,1);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(1, 1, -1, '日用百货',1,0,0,1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -529,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -539,14 +614,14 @@
       </c>
       <c r="H3" t="str">
         <f>CONCATENATE("map.put(""",D3,""",""",E3,F3,""");")</f>
-        <v>map.put("存过1","00");</v>
+        <v>map.put("装饰品","00");</v>
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" ref="I3:I12" si="0">CONCATENATE("insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(", A3, ", 1, ", B3, ", '",  D3,"', ", A3,", ", E3,", ",  F3,", 1);")</f>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(10, 1, 1, '存过1', 10, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(10, 1, 1, '装饰品', 10, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11</v>
       </c>
@@ -554,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -564,14 +639,14 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H12" si="1">CONCATENATE("map.put(""",D4,""",""",E4,F4,""");")</f>
-        <v>map.put("存过2","10");</v>
+        <v>map.put("工艺品","10");</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(11, 1, 1, '存过2', 11, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(11, 1, 1, '工艺品', 11, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>12</v>
       </c>
@@ -579,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -589,14 +664,14 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>map.put("存过3","20");</v>
+        <v>map.put("相框","20");</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(12, 1, 1, '存过3', 12, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(12, 1, 1, '相框', 12, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>13</v>
       </c>
@@ -604,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -614,14 +689,14 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>map.put("存过4","30");</v>
+        <v>map.put("钥匙扣","30");</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(13, 1, 1, '存过4', 13, 3, 0, 1);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(13, 1, 1, '钥匙扣', 13, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>14</v>
       </c>
@@ -629,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -639,14 +714,14 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>map.put("存过5","40");</v>
+        <v>map.put("杯子","40");</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(14, 1, 1, '存过5', 14, 4, 0, 1);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(14, 1, 1, '杯子', 14, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>15</v>
       </c>
@@ -654,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -664,14 +739,14 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>map.put("存过6","01");</v>
+        <v>map.put("置物架","01");</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(15, 1, 1, '存过6', 15, 0, 1, 1);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(15, 1, 1, '置物架', 15, 0, 1, 1);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>16</v>
       </c>
@@ -679,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -689,14 +764,14 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>map.put("存过7","11");</v>
+        <v>map.put("暖宝宝","11");</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(16, 1, 1, '存过7', 16, 1, 1, 1);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(16, 1, 1, '暖宝宝', 16, 1, 1, 1);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>17</v>
       </c>
@@ -704,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -714,14 +789,14 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>map.put("存过8","21");</v>
+        <v>map.put("饭盒","21");</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(17, 1, 1, '存过8', 17, 2, 1, 1);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(17, 1, 1, '饭盒', 17, 2, 1, 1);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>18</v>
       </c>
@@ -729,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -739,14 +814,14 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>map.put("存过9","31");</v>
+        <v>map.put("眼镜","31");</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(18, 1, 1, '存过9', 18, 3, 1, 1);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(18, 1, 1, '眼镜', 18, 3, 1, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>19</v>
       </c>
@@ -754,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -764,14 +839,14 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>map.put("存过10","41");</v>
+        <v>map.put("浴巾","41");</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(19, 1, 1, '存过10', 19, 4, 1, 1);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(19, 1, 1, '浴巾', 19, 4, 1, 1);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -779,14 +854,14 @@
         <v>-1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I13" s="3" t="str">
         <f>CONCATENATE("insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(", A13, ", 1, ", B13, ", '",  C13, "',", A13, ",0,0,1);")</f>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(2, 1, -1, '存过P2',2,0,0,1);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(2, 1, -1, '数码家电',2,0,0,1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20</v>
       </c>
@@ -794,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -804,14 +879,14 @@
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:H17" si="2">CONCATENATE("map.put(""",D14,""",""",E14,F14,""");")</f>
-        <v>map.put("存过31","02");</v>
+        <v>map.put("手机数据线","02");</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" ref="I14:I17" si="3">CONCATENATE("insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(", A14, ", 1, ", B14, ", '",  D14,"', ", A14,", ", E14,", ",  F14,", 1);")</f>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(20, 1, 2, '存过31', 20, 0, 2, 1);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(20, 1, 2, '手机数据线', 20, 0, 2, 1);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>21</v>
       </c>
@@ -819,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -829,14 +904,14 @@
       </c>
       <c r="H15" t="str">
         <f t="shared" si="2"/>
-        <v>map.put("存过32","12");</v>
+        <v>map.put("耳机","12");</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(21, 1, 2, '存过32', 21, 1, 2, 1);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(21, 1, 2, '耳机', 21, 1, 2, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22</v>
       </c>
@@ -844,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -853,15 +928,15 @@
         <v>2</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="2"/>
-        <v>map.put("存过33","22");</v>
+        <f>CONCATENATE("map.put(""",D16,""",""",E16,F16,""");")</f>
+        <v>map.put("电风扇","22");</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(22, 1, 2, '存过33', 22, 2, 2, 1);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(", A16, ", 1, ", B16, ", '",  D16,"', ", A16,", ", E16,", ",  F16,", 1);")</f>
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(22, 1, 2, '电风扇', 22, 2, 2, 1);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>23</v>
       </c>
@@ -869,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -879,14 +954,14 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" si="2"/>
-        <v>map.put("存过34","32");</v>
+        <v>map.put("剃须刀","32");</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(23, 1, 2, '存过34', 23, 3, 2, 1);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(23, 1, 2, '剃须刀', 23, 3, 2, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -898,10 +973,10 @@
       </c>
       <c r="I18" s="3" t="str">
         <f>CONCATENATE("insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(", A18, ", 1, ", B18, ", '",  C18, "',", A18, ",0,0, 1);")</f>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(3, 1, -1, '存过P3',3,0,0, 1);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(3, 1, -1, '母婴/玩具',3,0,0, 1);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>24</v>
       </c>
@@ -909,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -919,14 +994,14 @@
       </c>
       <c r="H19" t="str">
         <f t="shared" ref="H19:H22" si="4">CONCATENATE("map.put(""",D19,""",""",E19,F19,""");")</f>
-        <v>map.put("存过34","42");</v>
+        <v>map.put("早教机","42");</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" ref="I19:I22" si="5">CONCATENATE("insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(", A19, ", 1, ", B19, ", '",  D19,"', ", A19,", ", E19,", ",  F19,", 1);")</f>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(24, 1, 3, '存过34', 24, 4, 2, 1);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(24, 1, 3, '早教机', 24, 4, 2, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>25</v>
       </c>
@@ -934,7 +1009,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -944,14 +1019,14 @@
       </c>
       <c r="H20" t="str">
         <f t="shared" si="4"/>
-        <v>map.put("存过34","03");</v>
+        <v>map.put("婴幼儿玩具","03");</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(25, 1, 3, '存过34', 25, 0, 3, 1);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(25, 1, 3, '婴幼儿玩具', 25, 0, 3, 1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>26</v>
       </c>
@@ -959,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -969,14 +1044,14 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" si="4"/>
-        <v>map.put("存过34","13");</v>
+        <v>map.put("气球","13");</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(26, 1, 3, '存过34', 26, 1, 3, 1);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(26, 1, 3, '气球', 26, 1, 3, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>27</v>
       </c>
@@ -984,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -994,14 +1069,14 @@
       </c>
       <c r="H22" t="str">
         <f t="shared" si="4"/>
-        <v>map.put("存过34","23");</v>
+        <v>map.put("戏水玩具","23");</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(27, 1, 3, '存过34', 27, 2, 3, 1);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(27, 1, 3, '戏水玩具', 27, 2, 3, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -1009,14 +1084,14 @@
         <v>-1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I23" s="3" t="str">
         <f>CONCATENATE("insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(", A23, ", 1, ", B23, ", '",  C23, "',", A23, ",0,0,1);")</f>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(4, 1, -1, '存过P4',4,0,0,1);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(4, 1, -1, '办公文教',4,0,0,1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>28</v>
       </c>
@@ -1024,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1034,14 +1109,14 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" ref="H24:H26" si="6">CONCATENATE("map.put(""",D24,""",""",E24,F24,""");")</f>
-        <v>map.put("存过34","33");</v>
+        <v>map.put("笔记本","33");</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" ref="I24:I26" si="7">CONCATENATE("insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(", A24, ", 1, ", B24, ", '",  D24,"', ", A24,", ", E24,", ",  F24,", 1);")</f>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(28, 1, 4, '存过34', 28, 3, 3, 1);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(28, 1, 4, '笔记本', 28, 3, 3, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>29</v>
       </c>
@@ -1049,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -1059,14 +1134,14 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="6"/>
-        <v>map.put("存过34","43");</v>
+        <v>map.put("台历","43");</v>
       </c>
       <c r="I25" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(29, 1, 4, '存过34', 29, 4, 3, 1);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(29, 1, 4, '台历', 29, 4, 3, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>30</v>
       </c>
@@ -1074,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1084,14 +1159,14 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" si="6"/>
-        <v>map.put("存过34","04");</v>
+        <v>map.put("笔","04");</v>
       </c>
       <c r="I26" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(30, 1, 4, '存过34', 30, 0, 4, 1);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(30, 1, 4, '笔', 30, 0, 4, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -1099,14 +1174,14 @@
         <v>-1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I27" s="3" t="str">
         <f>CONCATENATE("insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(", A27, ", 1, ", B27, ", '",  C27, "',", A27, ",0,0,1);")</f>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(5, 1, -1, '存过P5',5,0,0,1);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(5, 1, -1, '美妆',5,0,0,1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>31</v>
       </c>
@@ -1114,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1124,14 +1199,14 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" ref="H28:H29" si="8">CONCATENATE("map.put(""",D28,""",""",E28,F28,""");")</f>
-        <v>map.put("存过34","14");</v>
+        <v>map.put("面膜","14");</v>
       </c>
       <c r="I28" s="2" t="str">
         <f>CONCATENATE("insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(", A28, ", 1, ", B28, ", '",  D28,"', ", A28,", ", E28,", ",  F28,", 1);")</f>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(31, 1, 5, '存过34', 31, 1, 4, 1);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(31, 1, 5, '面膜', 31, 1, 4, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>32</v>
       </c>
@@ -1139,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1149,11 +1224,11 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" si="8"/>
-        <v>map.put("存过34","24");</v>
+        <v>map.put("洗发水","24");</v>
       </c>
       <c r="I29" s="2" t="str">
         <f>CONCATENATE("insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(", A29, ", 1, ", B29, ", '",  D29,"', ", A29,", ", E29,", ",  F29,", 1);")</f>
-        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(32, 1, 5, '存过34', 32, 2, 4, 1);</v>
+        <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(32, 1, 5, '洗发水', 32, 2, 4, 1);</v>
       </c>
     </row>
   </sheetData>
@@ -1165,25 +1240,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7E587B-8265-4012-8D4D-1E9DBC1C94C1}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="113" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
+    <col min="6" max="6" width="113" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1195,20 +1338,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D13A63-3358-4D11-970F-5D8BB0029260}">
-  <dimension ref="D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="122.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="122.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BD6FA421-81FF-4C01-88E5-071976F4ACCD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0405D581-751C-48C9-8E97-D3810D965124}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,34 @@
   </si>
   <si>
     <t>java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into merchant(MERCHANT_ID, MERCHANT_NAME, RECORD_STATUS) values(1, '邓', 1);
+insert into merchant(MERCHANT_ID, MERCHANT_NAME, RECORD_STATUS) values(2, '陈', 1);
+insert into merchant_account(ACCOUNT_ID, MERCHANT_ID, LOGIN_ACCOUNT, LOGIN_PASSWORD, RECORD_STATUS) values(1, 1, 'deng', '1629df90b53cf300a442fc4090ac67f7', 1);
+insert into merchant_account(ACCOUNT_ID, MERCHANT_ID, LOGIN_ACCOUNT, LOGIN_PASSWORD, RECORD_STATUS) values(2, 1, 'child', '58bda27f1b62848b4ddc4043ac001c77', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into repository(REPO_ID, MERCHANT_ID, REPO_NAME, REPO_ADDRESS, RECORD_STATUS) value(1, 1, '1号仓库', 'xxx路188号', 1);
+insert into repository(REPO_ID, MERCHANT_ID, REPO_NAME, REPO_ADDRESS, RECORD_STATUS) value(2, 1, '2号仓库', 'xxx路199号', 1);
+insert into store(STORE_ID, MERCHANT_ID, STORE_NAME, STORE_NO, STORE_LNG, STORE_LAT, BUSINESS_BEGIN, BUSINESS_END, 
+STORE_PHONE, STORE_IMG, RECORD_STATUS) values(1, 1, '我要长测试店铺', '007', '123', '123', '08:00:00', '20:00:00', '138001380000', '', 1);
+insert into store_map_repo(REPO_ID, STORE_ID) values(1, 1);
+insert into store_map_repo(REPO_ID, STORE_ID) values(1, 2);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,17 +557,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990DD8B5-FEB9-47DA-8ABF-5CA1DC70F24F}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B6" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="119.6640625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -550,18 +601,18 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" customWidth="1"/>
     <col min="9" max="9" width="110" customWidth="1"/>
-    <col min="10" max="10" width="105.75" customWidth="1"/>
+    <col min="10" max="10" width="105.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -581,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -596,7 +647,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(1, 1, -1, '日用百货',1,0,0,1);</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -621,7 +672,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(10, 1, 1, '装饰品', 10, 0, 0, 1);</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -646,7 +697,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(11, 1, 1, '工艺品', 11, 1, 0, 1);</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -671,7 +722,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(12, 1, 1, '相框', 12, 2, 0, 1);</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -696,7 +747,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(13, 1, 1, '钥匙扣', 13, 3, 0, 1);</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -721,7 +772,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(14, 1, 1, '杯子', 14, 4, 0, 1);</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -746,7 +797,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(15, 1, 1, '置物架', 15, 0, 1, 1);</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -771,7 +822,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(16, 1, 1, '暖宝宝', 16, 1, 1, 1);</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -796,7 +847,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(17, 1, 1, '饭盒', 17, 2, 1, 1);</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -821,7 +872,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(18, 1, 1, '眼镜', 18, 3, 1, 1);</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19</v>
       </c>
@@ -846,7 +897,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(19, 1, 1, '浴巾', 19, 4, 1, 1);</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -861,7 +912,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(2, 1, -1, '数码家电',2,0,0,1);</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -886,7 +937,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(20, 1, 2, '手机数据线', 20, 0, 2, 1);</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -911,7 +962,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(21, 1, 2, '耳机', 21, 1, 2, 1);</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
@@ -936,7 +987,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(22, 1, 2, '电风扇', 22, 2, 2, 1);</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -961,7 +1012,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(23, 1, 2, '剃须刀', 23, 3, 2, 1);</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -976,7 +1027,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(3, 1, -1, '母婴/玩具',3,0,0, 1);</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
@@ -1001,7 +1052,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(24, 1, 3, '早教机', 24, 4, 2, 1);</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25</v>
       </c>
@@ -1026,7 +1077,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(25, 1, 3, '婴幼儿玩具', 25, 0, 3, 1);</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1051,7 +1102,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(26, 1, 3, '气球', 26, 1, 3, 1);</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -1076,7 +1127,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(27, 1, 3, '戏水玩具', 27, 2, 3, 1);</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -1091,7 +1142,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(4, 1, -1, '办公文教',4,0,0,1);</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>28</v>
       </c>
@@ -1116,7 +1167,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(28, 1, 4, '笔记本', 28, 3, 3, 1);</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>29</v>
       </c>
@@ -1141,7 +1192,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(29, 1, 4, '台历', 29, 4, 3, 1);</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>30</v>
       </c>
@@ -1166,7 +1217,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(30, 1, 4, '笔', 30, 0, 4, 1);</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -1181,7 +1232,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(5, 1, -1, '美妆',5,0,0,1);</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>31</v>
       </c>
@@ -1206,7 +1257,7 @@
         <v>insert into category(CAT_ID, MERCHANT_ID, PARENT_ID, CAT_NAME, CAT_PRIO, CAT_IMG_X, CAT_IMG_Y, RECORD_STATUS) values(31, 1, 5, '面膜', 31, 1, 4, 1);</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32</v>
       </c>
@@ -1242,19 +1293,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7E587B-8265-4012-8D4D-1E9DBC1C94C1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="4" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="4" width="5.88671875" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
     <col min="6" max="6" width="113" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1271,7 +1322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1285,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1296,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1307,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1318,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1340,17 +1391,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D13A63-3358-4D11-970F-5D8BB0029260}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="122.75" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="122.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1358,7 +1409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1366,22 +1417,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>

--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0405D581-751C-48C9-8E97-D3810D965124}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4545EDC7-9C31-4F14-AED0-B8AF93A3E0E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="4" r:id="rId1"/>
     <sheet name="cat" sheetId="1" r:id="rId2"/>
     <sheet name="bra" sheetId="2" r:id="rId3"/>
     <sheet name="theme" sheetId="3" r:id="rId4"/>
+    <sheet name="search" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +213,14 @@
 STORE_PHONE, STORE_IMG, RECORD_STATUS) values(1, 1, '我要长测试店铺', '007', '123', '123', '08:00:00', '20:00:00', '138001380000', '', 1);
 insert into store_map_repo(REPO_ID, STORE_ID) values(1, 1);
 insert into store_map_repo(REPO_ID, STORE_ID) values(1, 2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真功夫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1391,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D13A63-3358-4D11-970F-5D8BB0029260}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1441,4 +1450,59 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E83A5E3-C4E2-4883-B5A1-E4769271592E}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="110.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>CONCATENATE("insert into search_hot_word(HOT_ID, STORE_ID, HOT_WORD, HOT_PRIO) values(", A2,", 1, '", B2, "', ",A2,")")</f>
+        <v>insert into search_hot_word(HOT_ID, STORE_ID, HOT_WORD, HOT_PRIO) values(1, 1, '真功夫', 1)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>CONCATENATE("insert into search_hot_word(HOT_ID, STORE_ID, HOT_WORD, HOT_PRIO) values(", A3,", 1, '", B3, "', ",A3,")")</f>
+        <v>insert into search_hot_word(HOT_ID, STORE_ID, HOT_WORD, HOT_PRIO) values(2, 1, '祥源', 2)</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4545EDC7-9C31-4F14-AED0-B8AF93A3E0E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BF5AAF8B-E3E4-4C0A-A8CD-93D47386B7BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="4" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="bra" sheetId="2" r:id="rId3"/>
     <sheet name="theme" sheetId="3" r:id="rId4"/>
     <sheet name="search" sheetId="5" r:id="rId5"/>
+    <sheet name="rand" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +222,10 @@
   </si>
   <si>
     <t>真功夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1456,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E83A5E3-C4E2-4883-B5A1-E4769271592E}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1505,4 +1510,197 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C22DB0F-5AC1-44AA-9F0A-80DC76773A86}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f ca="1">INDIRECT("A" &amp; RANDBETWEEN(2, 19))</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C19" ca="1" si="0">INDIRECT("A" &amp; RANDBETWEEN(2, 19))</f>
+        <v>3.2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3.6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.9</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7.9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8.9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11.5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12.5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18.8</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>23.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>28.8</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A19">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>